--- a/out/test/kappas.xlsx
+++ b/out/test/kappas.xlsx
@@ -443,27 +443,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Actual eventdna_anno_2 - Pred eventdna_anno_1</t>
+          <t>Actual eventdna_anno_1 - Pred eventdna_anno_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1896875652355438</v>
+        <v>-0.215454474281688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Actual eventdna_anno_3 - Pred eventdna_anno_1</t>
+          <t>Actual eventdna_anno_2 - Pred eventdna_anno_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.215454474281688</v>
+        <v>-0.1896875652355438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Actual eventdna_anno_3 - Pred eventdna_anno_2</t>
+          <t>Actual eventdna_anno_2 - Pred eventdna_anno_3</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -473,21 +473,21 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Actual eventdna_anno_4 - Pred eventdna_anno_1</t>
+          <t>Actual eventdna_anno_2 - Pred eventdna_anno_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2686567164179107</v>
+        <v>-0.2168563721297452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Actual eventdna_anno_4 - Pred eventdna_anno_2</t>
+          <t>Actual eventdna_anno_4 - Pred eventdna_anno_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2168563721297452</v>
+        <v>-0.2686567164179107</v>
       </c>
     </row>
     <row r="7">

--- a/out/test/kappas.xlsx
+++ b/out/test/kappas.xlsx
@@ -443,27 +443,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Actual eventdna_anno_1 - Pred eventdna_anno_3</t>
+          <t>Actual eventdna_anno_1 - Pred eventdna_anno_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.215454474281688</v>
+        <v>-0.1896875652355438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Actual eventdna_anno_2 - Pred eventdna_anno_1</t>
+          <t>Actual eventdna_anno_3 - Pred eventdna_anno_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1896875652355438</v>
+        <v>-0.215454474281688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Actual eventdna_anno_2 - Pred eventdna_anno_3</t>
+          <t>Actual eventdna_anno_3 - Pred eventdna_anno_2</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -473,21 +473,21 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Actual eventdna_anno_2 - Pred eventdna_anno_4</t>
+          <t>Actual eventdna_anno_4 - Pred eventdna_anno_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2168563721297452</v>
+        <v>-0.2686567164179107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Actual eventdna_anno_4 - Pred eventdna_anno_1</t>
+          <t>Actual eventdna_anno_4 - Pred eventdna_anno_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2686567164179107</v>
+        <v>-0.2168563721297452</v>
       </c>
     </row>
     <row r="7">
